--- a/data/Cuestionario.xlsx
+++ b/data/Cuestionario.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignaciogarciabarrero/Desktop/Data Science/DESAFIO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D16811F-565D-6446-BD2B-C99F2476B2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D632867-D19A-1A49-B326-803292B3F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{84F587C9-ED87-0243-89F9-359E9059E28E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{84F587C9-ED87-0243-89F9-359E9059E28E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cuestionario" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="UNIFICAR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Derrochador</t>
   </si>
@@ -56,12 +57,6 @@
     <t>Intenciones</t>
   </si>
   <si>
-    <t>Pregunta General</t>
-  </si>
-  <si>
-    <t>Pregunta Decisiva</t>
-  </si>
-  <si>
     <t>Carne</t>
   </si>
   <si>
@@ -89,17 +84,102 @@
     <t>Informativas</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>Regresión</t>
+  </si>
+  <si>
+    <t>Asunto Pregunta</t>
+  </si>
+  <si>
+    <t>Jardín</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pregunta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Clasificación</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pregunta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Regresión</t>
+    </r>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>¿En qué rango de edad te encuentras?</t>
+  </si>
+  <si>
+    <t>¿Cuántas personas sois en vuestro hogar?</t>
+  </si>
+  <si>
+    <t>¿En qué provincia vives? Vamos a conocernos un poco mejor 😄</t>
+  </si>
+  <si>
+    <t>¿De cuál de estos temas te interesaría saber más?</t>
+  </si>
+  <si>
+    <t>¿Cuánto duran tus duchas?</t>
+  </si>
+  <si>
+    <t>¿Cuántas veces pones la lavadora a la semana?</t>
+  </si>
+  <si>
+    <t>¿Cuántas veces pones el lavavajillas?</t>
+  </si>
+  <si>
+    <t>¿Sueles poner el modo *ECO *en tus electrodomésticos?</t>
+  </si>
+  <si>
+    <t>¿Reciclas agua para usarlo en otras tareas?</t>
+  </si>
+  <si>
+    <t>¿*Reciclas *vidrio, cartón y plástico?</t>
+  </si>
+  <si>
+    <t>¿Cada cuánto consumes *carne*?</t>
+  </si>
+  <si>
+    <t>¿Cuántos km haces a la semana en coche?</t>
+  </si>
+  <si>
+    <t>¿Cuánto gastas al mes en comida para gato/perro?</t>
+  </si>
+  <si>
+    <t>¿Cuántos metros cuadrados tiene tu jardín?</t>
+  </si>
+  <si>
+    <t>¿Sabes cuánto dinero gastas en tu consumo de agua al mes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Typeform</t>
+  </si>
+  <si>
+    <t>Web</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,8 +187,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +243,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,6 +296,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,29 +637,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85453C9B-1EEC-894E-9B1D-DF7CFF26EEAB}">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="271" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="B10" zoomScale="393" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -557,11 +667,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -569,11 +679,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -581,16 +691,21 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1</v>
       </c>
@@ -601,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>2</v>
       </c>
@@ -612,62 +727,260 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>8</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A968D0-5858-5942-AC31-D550AC466E18}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="272" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="12" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>